--- a/CV-Veille-TableauCompétences/Tableau des compétences-Ethan-Mirbeau.xlsx
+++ b/CV-Veille-TableauCompétences/Tableau des compétences-Ethan-Mirbeau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy\Documents\ETHAN\BTS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davy2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9990" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8100" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -151,7 +151,25 @@
     <t>Portfolio / CV / Veille Technologique</t>
   </si>
   <si>
-    <t>GLPI (panne de PC en cour)</t>
+    <t>Analyse du cahier des charges</t>
+  </si>
+  <si>
+    <t>Conception (définition de la structure du site, installation de plugins)</t>
+  </si>
+  <si>
+    <t>Analyse des besoins</t>
+  </si>
+  <si>
+    <t>Réalisation et tests</t>
+  </si>
+  <si>
+    <t>Réalisation et tests (changement de format, tooltype, debug ...)</t>
+  </si>
+  <si>
+    <t>Mise en production (URL)</t>
+  </si>
+  <si>
+    <t>GLPI (panne de PC)</t>
   </si>
 </sst>
 </file>
@@ -237,12 +255,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -616,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -687,13 +711,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,27 +745,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1004,56 +1040,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1065,22 +1101,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1103,8 +1139,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1125,16 +1161,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="37"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
@@ -1216,7 +1252,7 @@
     </row>
     <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B13" s="9">
         <v>2025</v>
@@ -1293,72 +1329,96 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="22" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="E22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -1391,72 +1451,92 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="22" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+      <c r="C31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -1471,7 +1551,7 @@
     <row r="33" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -11150,11 +11230,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:F1"/>
@@ -11162,6 +11237,11 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
